--- a/biology/Médecine/Mucolipidose_type_4/Mucolipidose_type_4.xlsx
+++ b/biology/Médecine/Mucolipidose_type_4/Mucolipidose_type_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La mucolipidose type 4 est caractérisée par un retard psychomoteur évident dès la première année de vie et une perte de la vision très progressive par opacification de la cornée et dégènérescence de la rétine. Vers l'âge de 10 ans les troubles visuels sont très importants.
@@ -514,10 +526,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 252650 252650
-(en) Raphael Schiffmann, Ehud Goldin, Susan A Slaugenhaupt, Janine Smith, Mucolipidosis IV In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. [1].</t>
+(en) Raphael Schiffmann, Ehud Goldin, Susan A Slaugenhaupt, Janine Smith, Mucolipidosis IV In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. .</t>
         </is>
       </c>
     </row>
